--- a/Cahier des charges/UserStory.xlsx
+++ b/Cahier des charges/UserStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4493D82-6E30-407B-BD77-52B493625FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527B8CA-DA2D-4430-AE13-B06192B1F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>User story</t>
   </si>
@@ -73,9 +73,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Accès présence historique + actuelles</t>
-  </si>
-  <si>
     <t>Nicolas</t>
   </si>
   <si>
@@ -212,19 +209,39 @@
   </si>
   <si>
     <t>Update API avec transactions MySQL amélioration globale</t>
+  </si>
+  <si>
+    <t>Création de la page reconnaissance faciale pour check-in (iOS)</t>
+  </si>
+  <si>
+    <t>Création de la page profile de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Création de la page choix de présence</t>
+  </si>
+  <si>
+    <t>Implémenter la reconnaissance faciale sous Android</t>
+  </si>
+  <si>
+    <t>Recherche sur comment sauvegarder la reconnaissance dans la db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,8 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,10 +285,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:F45" totalsRowShown="0">
-  <autoFilter ref="A5:F45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F45">
-    <sortCondition ref="D5:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:F49" totalsRowShown="0">
+  <autoFilter ref="A5:F49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:F46">
+    <sortCondition ref="D5:D49"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Objet"/>
@@ -581,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F45"/>
+  <dimension ref="A3:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,15 +640,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -639,18 +657,18 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -662,15 +680,15 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -679,18 +697,18 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -702,15 +720,15 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -719,18 +737,18 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -739,18 +757,18 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -759,18 +777,18 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -782,15 +800,15 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -799,18 +817,18 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -822,15 +840,15 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -842,15 +860,15 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -859,18 +877,18 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -879,18 +897,18 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -899,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -922,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -959,15 +977,15 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -982,15 +1000,15 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1002,15 +1020,15 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1022,15 +1040,15 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1042,15 +1060,15 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1059,18 +1077,18 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1079,18 +1097,18 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1099,18 +1117,18 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1119,18 +1137,18 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1139,18 +1157,18 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1159,18 +1177,18 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1179,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1190,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1199,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1210,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1219,21 +1237,21 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1242,15 +1260,15 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1259,10 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1279,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1290,13 +1305,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1307,70 +1325,70 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
@@ -1378,48 +1396,129 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>28</v>
       </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Cahier des charges/UserStory.xlsx
+++ b/Cahier des charges/UserStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527B8CA-DA2D-4430-AE13-B06192B1F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E51349A-0D79-40BC-9C6A-06880BE63423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>Federico</t>
   </si>
   <si>
-    <t>Statistiques des présences</t>
-  </si>
-  <si>
     <t>recherche par élève</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>Recherche sur comment sauvegarder la reconnaissance dans la db</t>
+  </si>
+  <si>
+    <t>Ajout des call api sur les pages créées</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:F49" totalsRowShown="0">
-  <autoFilter ref="A5:F49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A5:F49" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:F46">
     <sortCondition ref="D5:D49"/>
   </sortState>
@@ -601,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,15 +646,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -660,15 +666,15 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -680,15 +686,15 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -697,18 +703,18 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -720,15 +726,15 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -740,15 +746,15 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -760,15 +766,15 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -780,15 +786,15 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -800,15 +806,15 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -820,15 +826,15 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -840,15 +846,15 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -860,15 +866,15 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -877,18 +883,18 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -900,15 +906,15 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -920,10 +926,10 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -940,10 +946,10 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -960,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -977,15 +983,15 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1000,15 +1006,15 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1020,35 +1026,35 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1060,35 +1066,35 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1097,18 +1103,18 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1120,15 +1126,15 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1140,15 +1146,15 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1160,15 +1166,15 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1180,12 +1186,12 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1197,18 +1203,18 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1220,12 +1226,12 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1240,15 +1246,15 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1260,12 +1266,12 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1282,7 +1288,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1311,15 +1317,15 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1331,15 +1337,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1351,15 +1357,15 @@
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -1371,15 +1377,15 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1391,12 +1397,12 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1411,12 +1417,12 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1428,18 +1434,18 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1448,15 +1454,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -1471,15 +1477,15 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
         <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1491,15 +1497,15 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1511,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Cahier des charges/UserStory.xlsx
+++ b/Cahier des charges/UserStory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\AR-U-Here\Cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E51349A-0D79-40BC-9C6A-06880BE63423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6015FA-14B1-4DC9-A42A-37340404D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
   <si>
     <t>User story</t>
   </si>
@@ -106,12 +106,6 @@
     <t>vérification état présence</t>
   </si>
   <si>
-    <t>Historique triable</t>
-  </si>
-  <si>
-    <t>Suppréssion données bio</t>
-  </si>
-  <si>
     <t>CRUD utilisateur + login</t>
   </si>
   <si>
@@ -224,6 +218,15 @@
   </si>
   <si>
     <t>Ajout des call api sur les pages créées</t>
+  </si>
+  <si>
+    <t>Changer toutes les couleurs en variables</t>
+  </si>
+  <si>
+    <t>Implémenter les components dans toutes les pages (app bar + nav bar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lier toutes les pages dans le bonne ordre et au bon moment </t>
   </si>
 </sst>
 </file>
@@ -285,14 +288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:F49" totalsRowShown="0">
-  <autoFilter ref="A5:F49" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:F50" totalsRowShown="0">
+  <autoFilter ref="A5:F50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:F46">
     <sortCondition ref="D5:D49"/>
   </sortState>
@@ -605,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F49"/>
+  <dimension ref="A3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
@@ -646,15 +643,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -666,15 +663,15 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -686,15 +683,15 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -703,18 +700,18 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -726,15 +723,15 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -746,15 +743,15 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -766,15 +763,15 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -786,15 +783,15 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -806,15 +803,15 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -826,15 +823,15 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -846,15 +843,15 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -866,15 +863,15 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -883,18 +880,18 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -906,15 +903,15 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -926,10 +923,10 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -946,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -966,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -983,15 +980,15 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1006,15 +1003,15 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1026,15 +1023,15 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1046,35 +1043,35 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1083,38 +1080,38 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1126,15 +1123,15 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1146,15 +1143,15 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1166,15 +1163,15 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1186,12 +1183,12 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1200,13 +1197,13 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1305,47 +1302,50 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1357,15 +1357,15 @@
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -1377,15 +1377,15 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1397,12 +1397,12 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1417,12 +1417,12 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1434,18 +1434,18 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1454,13 +1454,13 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1477,10 +1477,10 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1497,15 +1497,15 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1517,7 +1517,27 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Cahier des charges/UserStory.xlsx
+++ b/Cahier des charges/UserStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\AR-U-Here\Cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6015FA-14B1-4DC9-A42A-37340404D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDE9D91-01F6-4ED0-B7BD-8CE8494162C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,8 +290,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:F50" totalsRowShown="0">
   <autoFilter ref="A5:F50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:F46">
-    <sortCondition ref="D5:D49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F50">
+    <sortCondition ref="D5:D50"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Objet"/>
@@ -301,7 +301,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="personne en charge"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Importance"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,19 +1188,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1262,13 +1262,10 @@
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1280,29 +1277,32 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
@@ -1342,33 +1342,33 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1377,15 +1377,15 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1402,33 +1402,33 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>58</v>
+      <c r="A45" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1437,12 +1437,12 @@
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>59</v>
+      <c r="A46" t="s">
+        <v>61</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>52</v>
@@ -1462,50 +1462,50 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -1531,10 +1531,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>52</v>
